--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_1.xlsx
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.370276572318</v>
       </c>
       <c r="C2" t="n">
         <v>5375.37027657232</v>
       </c>
       <c r="D2" t="n">
+        <v>5375.370276572319</v>
+      </c>
+      <c r="E2" t="n">
         <v>5375.37027657232</v>
       </c>
-      <c r="E2" t="n">
-        <v>5375.370276572318</v>
-      </c>
       <c r="F2" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="G2" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="H2" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="I2" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="J2" t="n">
         <v>5375.370276572318</v>
       </c>
       <c r="K2" t="n">
+        <v>5375.370276572318</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5375.37027657232</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5375.37027657232</v>
+      </c>
+      <c r="N2" t="n">
         <v>5375.370276572319</v>
       </c>
-      <c r="L2" t="n">
-        <v>5375.370276572319</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>5375.370276572321</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5375.37027657232</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5375.37027657232</v>
       </c>
       <c r="P2" t="n">
         <v>5375.370276572319</v>
@@ -26528,37 +26528,37 @@
         <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="F6" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="J6" t="n">
         <v>5375.370276572318</v>
       </c>
       <c r="K6" t="n">
+        <v>5375.370276572318</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5375.37027657232</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5375.37027657232</v>
+      </c>
+      <c r="N6" t="n">
         <v>5375.370276572319</v>
       </c>
-      <c r="L6" t="n">
-        <v>5375.370276572319</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>5375.370276572321</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5375.37027657232</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5375.37027657232</v>
       </c>
       <c r="P6" t="n">
         <v>5375.370276572319</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_1.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>5375.37027657232</v>
+      </c>
+      <c r="C2" t="n">
         <v>5375.370276572318</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5375.37027657232</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>5375.370276572319</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5375.37027657232</v>
       </c>
       <c r="F2" t="n">
         <v>5375.37027657232</v>
@@ -26329,31 +26331,31 @@
         <v>5375.37027657232</v>
       </c>
       <c r="H2" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="I2" t="n">
         <v>5375.37027657232</v>
       </c>
       <c r="J2" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="K2" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="L2" t="n">
         <v>5375.37027657232</v>
       </c>
       <c r="M2" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="N2" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.370276572318</v>
       </c>
       <c r="O2" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572318</v>
       </c>
       <c r="P2" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.370276572318</v>
       </c>
     </row>
     <row r="3">
@@ -26528,7 +26530,7 @@
         <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="F6" t="n">
         <v>5375.37027657232</v>
@@ -26537,31 +26539,31 @@
         <v>5375.37027657232</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="I6" t="n">
         <v>5375.37027657232</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="L6" t="n">
         <v>5375.37027657232</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.370276572318</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572318</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572319</v>
+        <v>5375.370276572318</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382173</v>
+        <v>-173776.4612130868</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="C2" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="D2" t="n">
         <v>5375.37027657232</v>
@@ -26325,16 +26325,16 @@
         <v>5375.370276572319</v>
       </c>
       <c r="F2" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="G2" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="H2" t="n">
         <v>5375.370276572319</v>
       </c>
       <c r="I2" t="n">
-        <v>5375.37027657232</v>
+        <v>5375.370276572319</v>
       </c>
       <c r="J2" t="n">
         <v>5375.37027657232</v>
@@ -26343,19 +26343,19 @@
         <v>5375.37027657232</v>
       </c>
       <c r="L2" t="n">
+        <v>5375.370276572319</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5375.370276572318</v>
+      </c>
+      <c r="N2" t="n">
         <v>5375.37027657232</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>5375.370276572321</v>
       </c>
-      <c r="N2" t="n">
-        <v>5375.370276572318</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5375.370276572318</v>
-      </c>
       <c r="P2" t="n">
-        <v>5375.370276572318</v>
+        <v>5375.37027657232</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.370276572319</v>
+        <v>-9775.303693462445</v>
       </c>
       <c r="F6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462445</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462445</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.370276572319</v>
+        <v>-9775.303693462445</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462445</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="L6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462445</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.370276572321</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
     </row>
   </sheetData>
